--- a/TestData/SearchHotel.xlsx
+++ b/TestData/SearchHotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/eclipse-workspace/StructureProject/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E588499D-034A-2940-940C-D32E110E15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D78CE-E68A-E640-9AD2-BFFCDC23786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{C11246EE-3A7B-6D4A-84F0-32D95F28C8A5}"/>
   </bookViews>
@@ -36,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Hotels</t>
-  </si>
-  <si>
-    <t>RoomType</t>
-  </si>
-  <si>
-    <t>NumberOfRooms</t>
-  </si>
-  <si>
-    <t>CheckInDate</t>
-  </si>
-  <si>
-    <t>CheckOutDate</t>
-  </si>
-  <si>
-    <t>AdultsPerRoom</t>
-  </si>
-  <si>
-    <t>ChildrenPerRoom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Testcase</t>
   </si>
@@ -74,68 +50,65 @@
     <t>Testcase_001</t>
   </si>
   <si>
-    <t>Testcase_002</t>
-  </si>
-  <si>
-    <t>Testcase_003</t>
-  </si>
-  <si>
-    <t>ExpectedText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search Hotel all data verify that list of posible hotels is populated </t>
-  </si>
-  <si>
-    <t>search Hotel without location verify that error message is populated</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Demonstrate the runMe and skip</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Hotel Creek</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>4 - Four</t>
-  </si>
-  <si>
-    <t>13/12/2023</t>
-  </si>
-  <si>
-    <t>31/12/2023</t>
-  </si>
-  <si>
-    <t>Please Select a Location</t>
+    <t xml:space="preserve">Create a template and send to a recipient </t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>STSCovid</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>recipientName</t>
+  </si>
+  <si>
+    <t>RecipientEmail</t>
+  </si>
+  <si>
+    <t>EmailMessage</t>
+  </si>
+  <si>
+    <t>Testing framework on Docusign</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>tokyom@stsafrica.com</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Testing framework on Docusign please ignore</t>
+  </si>
+  <si>
+    <t>TemplateDescription</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>EmaiSubject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -145,9 +118,25 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF17C6A3"/>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,15 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,174 +481,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155FB8E1-1896-4E4E-B03A-9ABDCA842728}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{3BC0381B-0D02-214B-B599-6A66A4556CD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/SearchHotel.xlsx
+++ b/TestData/SearchHotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/eclipse-workspace/StructureProject/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D78CE-E68A-E640-9AD2-BFFCDC23786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487D82B-107A-A344-9941-A3CAEDFBE7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{C11246EE-3A7B-6D4A-84F0-32D95F28C8A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Testcase</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>EmaiSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>/TestData/DeclarationOfSymptoms.docx</t>
   </si>
 </sst>
 </file>
@@ -160,9 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
@@ -481,89 +486,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155FB8E1-1896-4E4E-B03A-9ABDCA842728}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
